--- a/www.eia.gov/electricity/monthly/xls/table_3_01.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_3_01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
-    <t>Table 3.1. Stocks of Coal, Petroleum Liquids, and Petroleum Coke: Electric Power Sector, 2006 - October 2016</t>
+    <t>Table 3.1. Stocks of Coal, Petroleum Liquids, and Petroleum Coke: Electric Power Sector, 2006 - November 2016</t>
   </si>
   <si>
     <t/>
@@ -1046,7 +1046,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J52"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
@@ -2589,25 +2589,57 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11" t="s">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="10">
+        <v>172139</v>
+      </c>
+      <c r="C52" s="10">
+        <v>30847</v>
+      </c>
+      <c r="D52" s="10">
+        <v>833</v>
+      </c>
+      <c r="E52" s="10">
+        <v>139080</v>
+      </c>
+      <c r="F52" s="10">
+        <v>20372</v>
+      </c>
+      <c r="G52" s="10">
+        <v>606</v>
+      </c>
+      <c r="H52" s="10">
+        <v>33059</v>
+      </c>
+      <c r="I52" s="10">
+        <v>10475</v>
+      </c>
+      <c r="J52" s="10">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A28:J28"/>
     <mergeCell ref="A41:J41"/>
-    <mergeCell ref="A52:J52"/>
+    <mergeCell ref="A53:J53"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
